--- a/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
@@ -4,40 +4,44 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010" tabRatio="875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
-    <sheet name="UpdateCurrentLocation" sheetId="20" r:id="rId2"/>
-    <sheet name="UpdateDriverStatus" sheetId="26" r:id="rId3"/>
-    <sheet name="UpdateAddress" sheetId="27" r:id="rId4"/>
-    <sheet name="Update Driver Info" sheetId="5" r:id="rId5"/>
-    <sheet name="Change Password" sheetId="6" r:id="rId6"/>
-    <sheet name="Get List Vip Riders" sheetId="9" r:id="rId7"/>
-    <sheet name="DeleteVipRider" sheetId="28" r:id="rId8"/>
-    <sheet name="Add Vip Rider" sheetId="12" r:id="rId9"/>
-    <sheet name="GetRiderImage" sheetId="30" r:id="rId10"/>
-    <sheet name="AcceptTrip" sheetId="21" r:id="rId11"/>
-    <sheet name="RejectTrip" sheetId="22" r:id="rId12"/>
-    <sheet name="CancelTrip" sheetId="24" r:id="rId13"/>
-    <sheet name="StartTrip" sheetId="23" r:id="rId14"/>
-    <sheet name="CompleteTrip" sheetId="25" r:id="rId15"/>
-    <sheet name="Get My Trips" sheetId="10" r:id="rId16"/>
-    <sheet name="Register Promotion Trip" sheetId="15" r:id="rId17"/>
-    <sheet name="MyPromotionTrips" sheetId="29" r:id="rId18"/>
-    <sheet name="UpdatePromotionTrip" sheetId="16" r:id="rId19"/>
-    <sheet name="Sheet6" sheetId="31" r:id="rId20"/>
+    <sheet name="selectAvailableVehicle" sheetId="34" r:id="rId2"/>
+    <sheet name="UpdateCurrentLocation" sheetId="20" r:id="rId3"/>
+    <sheet name="UpdateDriverStatus" sheetId="26" r:id="rId4"/>
+    <sheet name="UpdateAddress" sheetId="27" r:id="rId5"/>
+    <sheet name="Update Driver Info" sheetId="5" r:id="rId6"/>
+    <sheet name="Change Password" sheetId="6" r:id="rId7"/>
+    <sheet name="Get List Vip Riders" sheetId="9" r:id="rId8"/>
+    <sheet name="DeleteVipRider" sheetId="28" r:id="rId9"/>
+    <sheet name="Add Vip Rider" sheetId="12" r:id="rId10"/>
+    <sheet name="GetRiderImage" sheetId="30" r:id="rId11"/>
+    <sheet name="AcceptTrip" sheetId="21" r:id="rId12"/>
+    <sheet name="RejectTrip" sheetId="22" r:id="rId13"/>
+    <sheet name="CancelTrip" sheetId="24" r:id="rId14"/>
+    <sheet name="StartTrip" sheetId="23" r:id="rId15"/>
+    <sheet name="CompleteTrip" sheetId="25" r:id="rId16"/>
+    <sheet name="Get My Trips" sheetId="10" r:id="rId17"/>
+    <sheet name="Register Promotion Trip" sheetId="15" r:id="rId18"/>
+    <sheet name="MyPromotionTrips" sheetId="29" r:id="rId19"/>
+    <sheet name="UpdatePromotionTrip" sheetId="16" r:id="rId20"/>
+    <sheet name="Sheet6" sheetId="31" r:id="rId21"/>
+    <sheet name="Sheet1" sheetId="32" r:id="rId22"/>
+    <sheet name="Sheet2" sheetId="33" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="246">
   <si>
     <t>String</t>
   </si>
@@ -717,13 +721,73 @@
   </si>
   <si>
     <t>/CommonController</t>
+  </si>
+  <si>
+    <t>selectAvailableVehice</t>
+  </si>
+  <si>
+    <t>oPrice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oKm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1Km </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2Km </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3Km </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4Price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vehicleId </t>
+  </si>
+  <si>
+    <t xml:space="preserve">plate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carTitle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carLevel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">manuYear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">status </t>
+  </si>
+  <si>
+    <t>vehicleInfos</t>
+  </si>
+  <si>
+    <t>Doube?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4Km </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vRegDate </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +847,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF373E4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1060,7 +1130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1190,6 +1260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1220,6 +1291,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1555,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,6 +2179,157 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="103"/>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="103"/>
+      <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="103"/>
+      <c r="B6" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="103"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="51"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="104"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="103"/>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="103"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="105"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -2139,7 +2374,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="102" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2153,7 +2388,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -2165,7 +2400,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
@@ -2177,7 +2412,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="103"/>
       <c r="B6" s="53" t="s">
         <v>59</v>
       </c>
@@ -2187,19 +2422,19 @@
       <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="53"/>
       <c r="C7" s="52"/>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="102" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2213,7 +2448,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2223,7 +2458,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -2231,7 +2466,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2239,7 +2474,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="7" t="s">
         <v>198</v>
       </c>
@@ -2249,7 +2484,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="3" t="s">
         <v>197</v>
       </c>
@@ -2267,12 +2502,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,12 +2739,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2736,12 +2971,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2970,12 +3205,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,12 +3443,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3466,7 +3701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
@@ -3789,7 +4024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -4061,7 +4296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
@@ -4500,11 +4735,355 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="43"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="107" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="108" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="109" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="108" t="s">
+        <v>244</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="108" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="108" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="108" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="108" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" s="110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="108" t="s">
+        <v>241</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4710,229 +5289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="34"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="34"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="43"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="43"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5132,12 +5489,258 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="27"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="34"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="43"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="28"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5320,7 +5923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -5537,7 +6140,7 @@
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -5551,19 +6154,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="56"/>
       <c r="C22" s="55"/>
       <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="53"/>
       <c r="C23" s="52"/>
       <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="53" t="s">
         <v>14</v>
       </c>
@@ -5575,19 +6178,19 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="96"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="96"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -5600,7 +6203,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -5890,7 +6493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -6109,7 +6712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
@@ -6154,7 +6757,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="99" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -6168,7 +6771,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="99"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
@@ -6178,7 +6781,7 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="99"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="53" t="s">
         <v>107</v>
       </c>
@@ -6190,19 +6793,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="99"/>
+      <c r="A6" s="100"/>
       <c r="B6" s="53"/>
       <c r="C6" s="52"/>
       <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="99"/>
+      <c r="A7" s="100"/>
       <c r="B7" s="53"/>
       <c r="C7" s="52"/>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
@@ -6319,7 +6922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -6464,155 +7067,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="67.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="102"/>
-      <c r="B4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
-      <c r="B6" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="51"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="101" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="104"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010" tabRatio="875" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010" tabRatio="875" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,6 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1261,6 +1260,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1291,19 +1303,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2223,7 +2222,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="107" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2237,7 +2236,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -2249,7 +2248,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -2261,7 +2260,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="53" t="s">
         <v>121</v>
       </c>
@@ -2273,19 +2272,19 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="53"/>
       <c r="C7" s="52"/>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="107" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2299,7 +2298,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2308,13 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
+      <c r="A12" s="110"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
@@ -2374,7 +2373,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="107" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2388,7 +2387,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="103"/>
+      <c r="A4" s="108"/>
       <c r="B4" s="6" t="s">
         <v>43</v>
       </c>
@@ -2400,7 +2399,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="108"/>
       <c r="B5" s="7" t="s">
         <v>44</v>
       </c>
@@ -2412,7 +2411,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
+      <c r="A6" s="108"/>
       <c r="B6" s="53" t="s">
         <v>59</v>
       </c>
@@ -2422,19 +2421,19 @@
       <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="103"/>
+      <c r="A7" s="108"/>
       <c r="B7" s="53"/>
       <c r="C7" s="52"/>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
+      <c r="A8" s="109"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="107" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2448,7 +2447,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
+      <c r="A10" s="108"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2458,7 +2457,7 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
+      <c r="A11" s="108"/>
       <c r="B11" s="6" t="s">
         <v>16</v>
       </c>
@@ -2466,7 +2465,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
+      <c r="A12" s="108"/>
       <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2473,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
+      <c r="A13" s="108"/>
       <c r="B13" s="7" t="s">
         <v>198</v>
       </c>
@@ -2484,7 +2483,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
+      <c r="A14" s="110"/>
       <c r="B14" s="3" t="s">
         <v>197</v>
       </c>
@@ -4739,8 +4738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4932,7 +4931,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
-      <c r="B21" s="106" t="s">
+      <c r="B21" s="96" t="s">
         <v>227</v>
       </c>
       <c r="C21" s="33" t="s">
@@ -4942,7 +4941,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="97" t="s">
         <v>228</v>
       </c>
       <c r="C22" s="33" t="s">
@@ -4952,7 +4951,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="97" t="s">
         <v>229</v>
       </c>
       <c r="C23" s="33" t="s">
@@ -4962,7 +4961,7 @@
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
-      <c r="B24" s="106" t="s">
+      <c r="B24" s="96" t="s">
         <v>230</v>
       </c>
       <c r="C24" s="33" t="s">
@@ -4971,7 +4970,7 @@
       <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="97" t="s">
         <v>231</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -4979,7 +4978,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="98" t="s">
         <v>232</v>
       </c>
       <c r="C26" s="33" t="s">
@@ -4987,7 +4986,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="107" t="s">
+      <c r="B27" s="97" t="s">
         <v>233</v>
       </c>
       <c r="C27" s="33" t="s">
@@ -4995,7 +4994,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="109" t="s">
+      <c r="B28" s="99" t="s">
         <v>234</v>
       </c>
       <c r="C28" s="33" t="s">
@@ -5003,7 +5002,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="98" t="s">
         <v>235</v>
       </c>
       <c r="C29" s="33" t="s">
@@ -5011,7 +5010,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="98" t="s">
         <v>244</v>
       </c>
       <c r="C30" s="33" t="s">
@@ -5019,58 +5018,58 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="100" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="C32" s="110" t="s">
+      <c r="C32" s="100" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="100" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="100" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="100" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="100" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="100" t="s">
         <v>153</v>
       </c>
     </row>
@@ -5084,7 +5083,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,8 +5738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6140,7 +6139,7 @@
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="101" t="s">
         <v>93</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -6154,19 +6153,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="102"/>
       <c r="B22" s="56"/>
       <c r="C22" s="55"/>
       <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="97"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="53"/>
       <c r="C23" s="52"/>
       <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="97"/>
+      <c r="A24" s="102"/>
       <c r="B24" s="53" t="s">
         <v>14</v>
       </c>
@@ -6178,19 +6177,19 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="97"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5"/>
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="97"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="98"/>
+      <c r="A27" s="103"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1"/>
@@ -6757,7 +6756,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="104" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -6771,7 +6770,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="100"/>
+      <c r="A4" s="105"/>
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
@@ -6781,7 +6780,7 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="53" t="s">
         <v>107</v>
       </c>
@@ -6793,19 +6792,19 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="100"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="53"/>
       <c r="C6" s="52"/>
       <c r="D6" s="51"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="100"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="53"/>
       <c r="C7" s="52"/>
       <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="13"/>
       <c r="C8" s="12"/>
       <c r="D8" s="11"/>

--- a/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010" tabRatio="875" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="247">
   <si>
     <t>String</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t xml:space="preserve">vRegDate </t>
+  </si>
+  <si>
+    <t>Cái này để lấy danh sách xe hợp lệ</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4739,7 +4742,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,7 +4823,9 @@
       <c r="C6" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="34" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
@@ -5738,7 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1905" windowWidth="14805" windowHeight="8010" tabRatio="875"/>
+    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010" tabRatio="875" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>json(encoded)</t>
   </si>
   <si>
-    <t>Trip taken : 012</t>
-  </si>
-  <si>
     <t>RejectTrip</t>
   </si>
   <si>
@@ -783,6 +780,9 @@
   </si>
   <si>
     <t>Cái này để lấy danh sách xe hợp lệ</t>
+  </si>
+  <si>
+    <t>Trip taken : 013</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1729,7 +1729,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>0</v>
@@ -1739,7 +1739,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>0</v>
@@ -1799,7 +1799,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>20</v>
@@ -1809,7 +1809,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>0</v>
@@ -1819,7 +1819,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>0</v>
@@ -1839,7 +1839,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>0</v>
@@ -1849,7 +1849,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>0</v>
@@ -1859,7 +1859,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>0</v>
@@ -1869,7 +1869,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>0</v>
@@ -1879,7 +1879,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>0</v>
@@ -1889,7 +1889,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>0</v>
@@ -1899,7 +1899,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>0</v>
@@ -1909,29 +1909,29 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>20</v>
@@ -1941,7 +1941,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>0</v>
@@ -1951,7 +1951,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>0</v>
@@ -1961,7 +1961,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>0</v>
@@ -1971,7 +1971,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>0</v>
@@ -1981,7 +1981,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>0</v>
@@ -1991,7 +1991,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>0</v>
@@ -2001,7 +2001,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>0</v>
@@ -2011,27 +2011,27 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>213</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>214</v>
       </c>
       <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>0</v>
@@ -2041,7 +2041,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>0</v>
@@ -2051,7 +2051,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>0</v>
@@ -2061,37 +2061,37 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
       <c r="B42" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2221,12 +2221,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2259,19 +2259,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="108"/>
       <c r="B6" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>121</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2352,7 +2352,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>8</v>
@@ -2372,12 +2372,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>3</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2478,21 +2478,21 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="108"/>
       <c r="B13" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="110"/>
       <c r="B14" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2508,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>43</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>14</v>
@@ -2705,7 +2705,7 @@
       <c r="B20" s="38"/>
       <c r="C20" s="33"/>
       <c r="D20" s="34" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2776,13 +2776,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3008,13 +3008,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>14</v>
@@ -3242,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3379,7 +3379,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>14</v>
@@ -3480,13 +3480,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3548,7 +3548,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>0</v>
@@ -3558,7 +3558,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>0</v>
@@ -3568,7 +3568,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>34</v>
@@ -3578,7 +3578,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>34</v>
@@ -3588,7 +3588,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>34</v>
@@ -3598,7 +3598,7 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>34</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B17" s="38" t="s">
         <v>14</v>
@@ -3724,7 +3724,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>8</v>
@@ -3744,7 +3744,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4"/>
@@ -3838,27 +3838,27 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="89" t="s">
         <v>115</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>116</v>
       </c>
       <c r="D13" s="90"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="89" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>110</v>
       </c>
       <c r="D14" s="90"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="89"/>
       <c r="D15" s="90"/>
@@ -3866,7 +3866,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="88" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="89"/>
       <c r="D16" s="90"/>
@@ -3874,7 +3874,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="88" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="89"/>
       <c r="D17" s="90"/>
@@ -3882,7 +3882,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="87" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="89"/>
       <c r="D18" s="90"/>
@@ -3890,7 +3890,7 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="89"/>
       <c r="D19" s="90"/>
@@ -3898,7 +3898,7 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="49"/>
       <c r="B20" s="88" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="89"/>
       <c r="D20" s="90"/>
@@ -3906,7 +3906,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="49"/>
       <c r="B21" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21" s="89"/>
       <c r="D21" s="90"/>
@@ -3914,17 +3914,17 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="89" t="s">
         <v>133</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>134</v>
       </c>
       <c r="D22" s="90"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="49"/>
       <c r="B23" s="88" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="89"/>
       <c r="D23" s="90"/>
@@ -3932,7 +3932,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="49"/>
       <c r="B24" s="88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="89"/>
       <c r="D24" s="90"/>
@@ -3940,7 +3940,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="49"/>
       <c r="B25" s="88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="89"/>
       <c r="D25" s="90"/>
@@ -3948,7 +3948,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="49"/>
       <c r="B26" s="88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="89"/>
       <c r="D26" s="90"/>
@@ -3956,7 +3956,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="49"/>
       <c r="B27" s="88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="89"/>
       <c r="D27" s="90"/>
@@ -3964,7 +3964,7 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="89"/>
       <c r="D28" s="90"/>
@@ -3972,7 +3972,7 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="89"/>
       <c r="D29" s="90"/>
@@ -3980,7 +3980,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="87" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="89"/>
       <c r="D30" s="90"/>
@@ -3988,7 +3988,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="49"/>
       <c r="B31" s="88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="89"/>
       <c r="D31" s="90"/>
@@ -3996,7 +3996,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
       <c r="B32" s="88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="89"/>
       <c r="D32" s="90"/>
@@ -4004,7 +4004,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="49"/>
       <c r="B33" s="88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="89"/>
       <c r="D33" s="90"/>
@@ -4053,7 +4053,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4067,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4113,7 +4113,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34"/>
@@ -4121,7 +4121,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
@@ -4129,7 +4129,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>0</v>
@@ -4139,27 +4139,27 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="28"/>
       <c r="B10" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="34"/>
@@ -4167,19 +4167,19 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>149</v>
-      </c>
       <c r="D13" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="43"/>
@@ -4187,7 +4187,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="43"/>
@@ -4195,7 +4195,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="43"/>
@@ -4264,10 +4264,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>153</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4339,7 +4339,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4377,7 +4377,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34"/>
@@ -4449,7 +4449,7 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34"/>
@@ -4457,7 +4457,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
@@ -4465,7 +4465,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="34"/>
@@ -4473,7 +4473,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34"/>
@@ -4481,7 +4481,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="34"/>
@@ -4489,17 +4489,17 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34"/>
@@ -4507,7 +4507,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="34"/>
@@ -4515,7 +4515,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>0</v>
@@ -4525,7 +4525,7 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="34"/>
@@ -4533,7 +4533,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
       <c r="B24" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="34"/>
@@ -4541,7 +4541,7 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="34"/>
@@ -4549,7 +4549,7 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
       <c r="B26" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="34"/>
@@ -4557,7 +4557,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
       <c r="B27" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="34"/>
@@ -4565,29 +4565,29 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
       <c r="B28" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
@@ -4595,7 +4595,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
       <c r="B31" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="34"/>
@@ -4603,7 +4603,7 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
       <c r="B32" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="34"/>
@@ -4611,7 +4611,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
       <c r="B33" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" s="33"/>
       <c r="D33" s="34"/>
@@ -4619,7 +4619,7 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
       <c r="B34" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C34" s="33"/>
       <c r="D34" s="34"/>
@@ -4627,7 +4627,7 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="34"/>
@@ -4635,7 +4635,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
       <c r="B36" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="33"/>
       <c r="D36" s="34"/>
@@ -4643,7 +4643,7 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
       <c r="B37" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C37" s="33"/>
       <c r="D37" s="34"/>
@@ -4651,7 +4651,7 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C38" s="33"/>
       <c r="D38" s="34"/>
@@ -4659,7 +4659,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
       <c r="B39" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="34"/>
@@ -4667,7 +4667,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>0</v>
@@ -4677,7 +4677,7 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
       <c r="B41" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="34"/>
@@ -4685,7 +4685,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
       <c r="B42" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C42" s="33"/>
       <c r="D42" s="34"/>
@@ -4693,7 +4693,7 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
       <c r="B43" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="34"/>
@@ -4701,17 +4701,17 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="37"/>
       <c r="B44" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="37"/>
       <c r="B45" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="34"/>
@@ -4719,7 +4719,7 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="37"/>
       <c r="B46" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="34"/>
@@ -4727,7 +4727,7 @@
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="39"/>
       <c r="B47" s="40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47" s="41"/>
       <c r="D47" s="42"/>
@@ -4778,7 +4778,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4811,7 +4811,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D5" s="34"/>
     </row>
@@ -4821,10 +4821,10 @@
         <v>43</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4927,17 +4927,17 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>34</v>
@@ -4947,7 +4947,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>34</v>
@@ -4957,125 +4957,125 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
       <c r="B24" s="96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="97" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="99" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="98" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5110,7 +5110,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5124,7 +5124,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5148,17 +5148,17 @@
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5176,27 +5176,27 @@
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="28"/>
       <c r="B9" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5320,7 +5320,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,7 +5334,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5358,17 +5358,17 @@
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5388,11 +5388,11 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,7 +5436,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,13 +5775,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5948,13 +5948,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5968,7 +5968,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,7 +5994,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,11 +6042,11 @@
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6064,7 +6064,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>0</v>
@@ -6074,25 +6074,25 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>3</v>
@@ -6178,7 +6178,7 @@
         <v>15</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6737,13 +6737,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6757,7 +6757,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6787,13 +6787,13 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="105"/>
       <c r="B5" s="53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6855,17 +6855,17 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
       <c r="B13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
       <c r="B14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>0</v>
@@ -6875,7 +6875,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>0</v>
@@ -6885,7 +6885,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
       <c r="B16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>0</v>
@@ -6895,7 +6895,7 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
       <c r="B17" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>0</v>
@@ -6911,10 +6911,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="49"/>
       <c r="B19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -6953,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6967,7 +6967,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7005,19 +7005,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="84"/>
       <c r="B6" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>121</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2355" windowWidth="14805" windowHeight="8010" tabRatio="875" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="8010" tabRatio="875" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="UpdateCurrentLocation" sheetId="20" r:id="rId3"/>
     <sheet name="UpdateDriverStatus" sheetId="26" r:id="rId4"/>
     <sheet name="UpdateAddress" sheetId="27" r:id="rId5"/>
-    <sheet name="Update Driver Info" sheetId="5" r:id="rId6"/>
+    <sheet name="Update Driver Info" sheetId="5" state="hidden" r:id="rId6"/>
     <sheet name="Change Password" sheetId="6" r:id="rId7"/>
     <sheet name="Get List Vip Riders" sheetId="9" r:id="rId8"/>
     <sheet name="DeleteVipRider" sheetId="28" r:id="rId9"/>
@@ -26,7 +26,7 @@
     <sheet name="Get My Trips" sheetId="10" r:id="rId17"/>
     <sheet name="Register Promotion Trip" sheetId="15" r:id="rId18"/>
     <sheet name="MyPromotionTrips" sheetId="29" r:id="rId19"/>
-    <sheet name="UpdatePromotionTrip" sheetId="16" r:id="rId20"/>
+    <sheet name="UpdatePromotionTrip" sheetId="16" state="hidden" r:id="rId20"/>
     <sheet name="Sheet6" sheetId="31" r:id="rId21"/>
     <sheet name="Sheet1" sheetId="32" r:id="rId22"/>
     <sheet name="Sheet2" sheetId="33" r:id="rId23"/>
@@ -1639,6 +1639,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2508,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -3707,7 +3710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -4028,10 +4031,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4300,6 +4306,9 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -4739,6 +4748,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5519,6 +5531,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5741,10 +5756,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,7 +5950,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6212,7 +6230,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
+++ b/WIP/Documents/TNET_WebServiceDesign_Driver_v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="2805" windowWidth="14805" windowHeight="8010" tabRatio="875" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="3255" windowWidth="14805" windowHeight="8010" tabRatio="875"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="4" r:id="rId1"/>
@@ -1644,8 +1644,8 @@
   </sheetPr>
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2185,10 +2185,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,6 +2339,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3710,8 +3716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6520,7 +6526,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6736,10 +6742,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6946,10 +6955,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E36" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
